--- a/Database/ValidationDataset.xlsx
+++ b/Database/ValidationDataset.xlsx
@@ -390,12 +390,18 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
